--- a/MethodDemos/output/statistics/grobid-AUTHOR_EMAILS.xlsx
+++ b/MethodDemos/output/statistics/grobid-AUTHOR_EMAILS.xlsx
@@ -539,7 +539,7 @@
   <si>
     <t>Maia Zaharieva --- maia.zaharieva@univie.ac.at
 Bogdan Boteanu --- bboteanu@alpha.imag.pub.ro
-Alexandru Lucian Gînsc --- alexandru.ginsca@cea.fr
+Alexandru Lucian Gînscă --- alexandru.ginsca@cea.fr
 Henning Müller --- henning.mueller@hevs.ch
 Bogdan Ionescu --- bionescu@alpha.imag.pub.ro
 Mihai Lupu --- lupu@ifs.tuwien.ac.at</t>

--- a/MethodDemos/output/statistics/grobid-AUTHOR_EMAILS.xlsx
+++ b/MethodDemos/output/statistics/grobid-AUTHOR_EMAILS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="171">
   <si>
     <t>TUW-137078</t>
   </si>
@@ -224,6 +224,11 @@
   </si>
   <si>
     <t>TUW-180162</t>
+  </si>
+  <si>
+    <t>Christopher Kruegel --- chris@cs.ucsb.edu
+Engin Kirda --- kirda@eurecom.fr
+Manuel Egele --- pizzaman@iseclab.org</t>
   </si>
   <si>
     <t>Engin Kirda --- kirda@eurecom.fr</t>
@@ -4368,21 +4373,21 @@
         <v>66</v>
       </c>
       <c r="F36" t="s" s="321">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n" s="322">
         <v>1.0</v>
       </c>
       <c r="H36" t="n" s="323">
-        <v>1.0</v>
+        <v>0.33</v>
       </c>
       <c r="I36" t="n" s="324">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="325">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="326">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-181199.pdf")</f>
@@ -4394,10 +4399,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-181199-xstream.xml")</f>
       </c>
       <c r="E37" t="s" s="329">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s" s="330">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n" s="331">
         <v>0.5</v>
@@ -4411,7 +4416,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="334">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="335">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182414.pdf")</f>
@@ -4423,10 +4428,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-182414-xstream.xml")</f>
       </c>
       <c r="E38" t="s" s="338">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s" s="339">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n" s="340">
         <v>1.0</v>
@@ -4440,7 +4445,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="343">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" s="344">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182899.pdf")</f>
@@ -4452,10 +4457,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-182899-xstream.xml")</f>
       </c>
       <c r="E39" t="s" s="347">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s" s="348">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n" s="349">
         <v>1.0</v>
@@ -4469,7 +4474,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="352">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" s="353">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185321.pdf")</f>
@@ -4498,7 +4503,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="361">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" s="362">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185441.pdf")</f>
@@ -4527,7 +4532,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="370">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" s="371">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-186227.pdf")</f>
@@ -4556,7 +4561,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="379">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B43" s="380">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-189842.pdf")</f>
@@ -4568,7 +4573,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-189842-xstream.xml")</f>
       </c>
       <c r="E43" t="s" s="383">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="384">
         <v>7</v>
@@ -4585,7 +4590,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="388">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="389">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191715.pdf")</f>
@@ -4614,7 +4619,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="397">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="398">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191977.pdf")</f>
@@ -4626,10 +4631,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-191977-xstream.xml")</f>
       </c>
       <c r="E45" t="s" s="401">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s" s="402">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G45" t="n" s="403">
         <v>1.0</v>
@@ -4643,7 +4648,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="406">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="407">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-192724.pdf")</f>
@@ -4655,10 +4660,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-192724-xstream.xml")</f>
       </c>
       <c r="E46" t="s" s="410">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s" s="411">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n" s="412">
         <v>1.0</v>
@@ -4672,7 +4677,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="415">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="416">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194085.pdf")</f>
@@ -4701,7 +4706,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="424">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="425">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194561.pdf")</f>
@@ -4730,7 +4735,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="433">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49" s="434">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194660.pdf")</f>
@@ -4759,7 +4764,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="442">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="443">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197422.pdf")</f>
@@ -4788,7 +4793,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="451">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="452">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197852.pdf")</f>
@@ -4817,7 +4822,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="460">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="461">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198400.pdf")</f>
@@ -4829,10 +4834,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-198400-xstream.xml")</f>
       </c>
       <c r="E52" t="s" s="464">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s" s="465">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G52" t="n" s="466">
         <v>1.0</v>
@@ -4846,7 +4851,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="469">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="470">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198401.pdf")</f>
@@ -4858,10 +4863,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-198401-xstream.xml")</f>
       </c>
       <c r="E53" t="s" s="473">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s" s="474">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G53" t="n" s="475">
         <v>1.0</v>
@@ -4875,7 +4880,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="478">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" s="479">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198405.pdf")</f>
@@ -4887,7 +4892,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-198405-xstream.xml")</f>
       </c>
       <c r="E54" t="s" s="482">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s" s="483">
         <v>7</v>
@@ -4904,7 +4909,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="487">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" s="488">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198408.pdf")</f>
@@ -4916,10 +4921,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-198408-xstream.xml")</f>
       </c>
       <c r="E55" t="s" s="491">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s" s="492">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G55" t="n" s="493">
         <v>1.0</v>
@@ -4933,7 +4938,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="496">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" s="497">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200745.pdf")</f>
@@ -4962,7 +4967,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="505">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="506">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200748.pdf")</f>
@@ -4991,7 +4996,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="514">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B58" s="515">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200948.pdf")</f>
@@ -5003,10 +5008,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-200948-xstream.xml")</f>
       </c>
       <c r="E58" t="s" s="518">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s" s="519">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G58" t="n" s="520">
         <v>1.0</v>
@@ -5020,7 +5025,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="523">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="524">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200950.pdf")</f>
@@ -5032,10 +5037,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-200950-xstream.xml")</f>
       </c>
       <c r="E59" t="s" s="527">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s" s="528">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G59" t="n" s="529">
         <v>1.0</v>
@@ -5049,7 +5054,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="532">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B60" s="533">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200959.pdf")</f>
@@ -5078,7 +5083,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="541">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61" s="542">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201066.pdf")</f>
@@ -5107,7 +5112,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="550">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B62" s="551">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201160.pdf")</f>
@@ -5136,7 +5141,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="559">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B63" s="560">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201167.pdf")</f>
@@ -5151,7 +5156,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s" s="564">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G63" t="n" s="565">
         <v>0.0</v>
@@ -5165,7 +5170,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="568">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B64" s="569">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201821.pdf")</f>
@@ -5177,10 +5182,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-201821-xstream.xml")</f>
       </c>
       <c r="E64" t="s" s="572">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s" s="573">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G64" t="n" s="574">
         <v>1.0</v>
@@ -5194,7 +5199,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="577">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B65" s="578">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202034.pdf")</f>
@@ -5223,7 +5228,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="586">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B66" s="587">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202824.pdf")</f>
@@ -5235,10 +5240,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-202824-xstream.xml")</f>
       </c>
       <c r="E66" t="s" s="590">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F66" t="s" s="591">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G66" t="n" s="592">
         <v>1.0</v>
@@ -5252,7 +5257,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="595">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67" s="596">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203409.pdf")</f>
@@ -5281,7 +5286,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="604">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68" s="605">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203924.pdf")</f>
@@ -5310,7 +5315,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="613">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69" s="614">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-204724.pdf")</f>
@@ -5322,10 +5327,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-204724-xstream.xml")</f>
       </c>
       <c r="E69" t="s" s="617">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s" s="618">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G69" t="n" s="619">
         <v>1.0</v>
@@ -5339,7 +5344,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="622">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B70" s="623">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205557.pdf")</f>
@@ -5368,7 +5373,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="631">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B71" s="632">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205933.pdf")</f>
@@ -5397,7 +5402,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="640">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B72" s="641">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-213513.pdf")</f>
@@ -5409,10 +5414,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-213513-xstream.xml")</f>
       </c>
       <c r="E72" t="s" s="644">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F72" t="s" s="645">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G72" t="n" s="646">
         <v>1.0</v>
@@ -5426,7 +5431,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="649">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B73" s="650">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-216744.pdf")</f>
@@ -5455,7 +5460,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="658">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B74" s="659">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217690.pdf")</f>
@@ -5484,7 +5489,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="667">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B75" s="668">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217971.pdf")</f>
@@ -5513,7 +5518,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="676">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76" s="677">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-221215.pdf")</f>
@@ -5542,7 +5547,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="685">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B77" s="686">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223906.pdf")</f>
@@ -5554,10 +5559,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-223906-xstream.xml")</f>
       </c>
       <c r="E77" t="s" s="689">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F77" t="s" s="690">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G77" t="n" s="691">
         <v>1.0</v>
@@ -5571,7 +5576,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="694">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B78" s="695">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223973.pdf")</f>
@@ -5600,7 +5605,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="703">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B79" s="704">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-225252.pdf")</f>
@@ -5629,7 +5634,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="712">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B80" s="713">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226000.pdf")</f>
@@ -5658,7 +5663,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="721">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B81" s="722">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226016.pdf")</f>
@@ -5687,7 +5692,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="730">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B82" s="731">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-228620.pdf")</f>
@@ -5699,7 +5704,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-228620-xstream.xml")</f>
       </c>
       <c r="E82" t="s" s="734">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F82" t="s" s="735">
         <v>7</v>
@@ -5716,7 +5721,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="739">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B83" s="740">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-231707.pdf")</f>
@@ -5745,7 +5750,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="748">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B84" s="749">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233317.pdf")</f>
@@ -5757,10 +5762,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-233317-xstream.xml")</f>
       </c>
       <c r="E84" t="s" s="752">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F84" t="s" s="753">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G84" t="n" s="754">
         <v>0.0</v>
@@ -5774,7 +5779,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="757">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B85" s="758">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233657.pdf")</f>
@@ -5786,7 +5791,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-233657-xstream.xml")</f>
       </c>
       <c r="E85" t="s" s="761">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F85" t="s" s="762">
         <v>7</v>
@@ -5803,7 +5808,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="766">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B86" s="767">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236063.pdf")</f>
@@ -5832,7 +5837,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="775">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B87" s="776">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236120.pdf")</f>
@@ -5844,10 +5849,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-236120-xstream.xml")</f>
       </c>
       <c r="E87" t="s" s="779">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F87" t="s" s="780">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G87" t="n" s="781">
         <v>1.0</v>
@@ -5861,7 +5866,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="784">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B88" s="785">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-237297.pdf")</f>
@@ -5890,7 +5895,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="793">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B89" s="794">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-240858.pdf")</f>
@@ -5902,10 +5907,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-240858-xstream.xml")</f>
       </c>
       <c r="E89" t="s" s="797">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F89" t="s" s="798">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G89" t="n" s="799">
         <v>1.0</v>
@@ -5919,7 +5924,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="802">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B90" s="803">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245336.pdf")</f>
@@ -5948,7 +5953,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="811">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B91" s="812">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245799.pdf")</f>
@@ -5960,7 +5965,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-245799-xstream.xml")</f>
       </c>
       <c r="E91" t="s" s="815">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F91" t="s" s="816">
         <v>7</v>
@@ -5977,7 +5982,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="820">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B92" s="821">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247301.pdf")</f>
@@ -5989,10 +5994,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-247301-xstream.xml")</f>
       </c>
       <c r="E92" t="s" s="824">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F92" t="s" s="825">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G92" t="n" s="826">
         <v>1.0</v>
@@ -6006,7 +6011,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="829">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B93" s="830">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247741.pdf")</f>
@@ -6035,7 +6040,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="838">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B94" s="839">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247743.pdf")</f>
@@ -6064,7 +6069,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="847">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B95" s="848">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-251544.pdf")</f>
@@ -6076,7 +6081,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-251544-xstream.xml")</f>
       </c>
       <c r="E95" t="s" s="851">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F95" t="s" s="852">
         <v>7</v>
@@ -6093,7 +6098,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="856">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B96" s="857">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-252847.pdf")</f>
@@ -6105,10 +6110,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-252847-xstream.xml")</f>
       </c>
       <c r="E96" t="s" s="860">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F96" t="s" s="861">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G96" t="n" s="862">
         <v>0.5</v>
@@ -6122,7 +6127,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="865">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B97" s="866">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-255712.pdf")</f>
@@ -6151,7 +6156,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="874">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B98" s="875">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-256654.pdf")</f>
@@ -6163,7 +6168,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-256654-xstream.xml")</f>
       </c>
       <c r="E98" t="s" s="878">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F98" t="s" s="879">
         <v>7</v>
@@ -6180,7 +6185,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="883">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B99" s="884">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257397.pdf")</f>
@@ -6192,7 +6197,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-257397-xstream.xml")</f>
       </c>
       <c r="E99" t="s" s="887">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F99" t="s" s="888">
         <v>7</v>
@@ -6209,7 +6214,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="892">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B100" s="893">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257870.pdf")</f>
@@ -6221,10 +6226,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\grobid\grobid-TUW-257870-xstream.xml")</f>
       </c>
       <c r="E100" t="s" s="896">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F100" t="s" s="897">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G100" t="n" s="898">
         <v>0.5</v>
